--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>497.9042940223819</v>
+        <v>5.826443717647334</v>
       </c>
       <c r="R2">
-        <v>497.9042940223819</v>
+        <v>52.437993458826</v>
       </c>
       <c r="S2">
-        <v>0.005855972032646626</v>
+        <v>4.186413204460225E-05</v>
       </c>
       <c r="T2">
-        <v>0.005855972032646626</v>
+        <v>4.307751429393607E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>659.0106302353206</v>
+        <v>1067.133327729858</v>
       </c>
       <c r="R3">
-        <v>659.0106302353206</v>
+        <v>9604.199949568721</v>
       </c>
       <c r="S3">
-        <v>0.007750782361602586</v>
+        <v>0.007667560643547725</v>
       </c>
       <c r="T3">
-        <v>0.007750782361602586</v>
+        <v>0.007889795801096418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>31.6883571895229</v>
+        <v>993.9119665715194</v>
       </c>
       <c r="R4">
-        <v>31.6883571895229</v>
+        <v>8945.207699143675</v>
       </c>
       <c r="S4">
-        <v>0.0003726943826156702</v>
+        <v>0.007141450913398996</v>
       </c>
       <c r="T4">
-        <v>0.0003726943826156702</v>
+        <v>0.007348437403972241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.081771352162</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>140.081771352162</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.1855361836944317</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.1855361836944317</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>6608.219253313114</v>
+        <v>48.822132500846</v>
       </c>
       <c r="R5">
-        <v>6608.219253313114</v>
+        <v>292.932795005076</v>
       </c>
       <c r="S5">
-        <v>0.07772085438423439</v>
+        <v>0.0003507965237051652</v>
       </c>
       <c r="T5">
-        <v>0.07772085438423439</v>
+        <v>0.000240642630117074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H6">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I6">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J6">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>8746.433375132317</v>
+        <v>57.23694601736101</v>
       </c>
       <c r="R6">
-        <v>8746.433375132317</v>
+        <v>515.132514156249</v>
       </c>
       <c r="S6">
-        <v>0.1028689044161557</v>
+        <v>0.0004112585964990882</v>
       </c>
       <c r="T6">
-        <v>0.1028689044161557</v>
+        <v>0.0004231784394889365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>420.5700063238561</v>
+        <v>10483.14471615012</v>
       </c>
       <c r="R7">
-        <v>420.5700063238561</v>
+        <v>94348.30244535106</v>
       </c>
       <c r="S7">
-        <v>0.004946424894041596</v>
+        <v>0.07532343499866397</v>
       </c>
       <c r="T7">
-        <v>0.004946424894041596</v>
+        <v>0.07750659548766813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>154.497709563478</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>154.497709563478</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.2046298754309405</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.2046298754309405</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>7288.276904805113</v>
+        <v>9763.843664078891</v>
       </c>
       <c r="R8">
-        <v>7288.276904805113</v>
+        <v>87874.59297671</v>
       </c>
       <c r="S8">
-        <v>0.08571917581977011</v>
+        <v>0.07015511695029354</v>
       </c>
       <c r="T8">
-        <v>0.08571917581977011</v>
+        <v>0.07218847986623152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>154.497709563478</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>154.497709563478</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.2046298754309405</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.2046298754309405</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>9646.536521232014</v>
+        <v>479.6115602969791</v>
       </c>
       <c r="R9">
-        <v>9646.536521232014</v>
+        <v>2877.669361781874</v>
       </c>
       <c r="S9">
-        <v>0.1134552337837432</v>
+        <v>0.003446102401980804</v>
       </c>
       <c r="T9">
-        <v>0.1134552337837432</v>
+        <v>0.002363989063820977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H10">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I10">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J10">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.0023178766533</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N10">
-        <v>3.0023178766533</v>
+        <v>1.104247</v>
       </c>
       <c r="O10">
-        <v>0.02666016296954829</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P10">
-        <v>0.02666016296954829</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q10">
-        <v>463.8512353244195</v>
+        <v>65.93067651365544</v>
       </c>
       <c r="R10">
-        <v>463.8512353244195</v>
+        <v>593.376088622899</v>
       </c>
       <c r="S10">
-        <v>0.005455465827427241</v>
+        <v>0.00047372474207511</v>
       </c>
       <c r="T10">
-        <v>0.005455465827427241</v>
+        <v>0.0004874550922586938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,57 +1092,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>396.600699876961</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H11">
-        <v>396.600699876961</v>
+        <v>537.358117</v>
       </c>
       <c r="I11">
-        <v>0.525291617856004</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J11">
-        <v>0.525291617856004</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.174012646515</v>
+        <v>67.415553</v>
       </c>
       <c r="N11">
-        <v>47.174012646515</v>
+        <v>202.246659</v>
       </c>
       <c r="O11">
-        <v>0.4188986365712714</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P11">
-        <v>0.4188986365712714</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q11">
-        <v>18709.24643161246</v>
+        <v>12075.43153886457</v>
       </c>
       <c r="R11">
-        <v>18709.24643161246</v>
+        <v>108678.8838497811</v>
       </c>
       <c r="S11">
-        <v>0.2200439425221974</v>
+        <v>0.08676432570822265</v>
       </c>
       <c r="T11">
-        <v>0.2200439425221974</v>
+        <v>0.08927908685453308</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,57 +1154,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>396.600699876961</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>396.600699876961</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.525291617856004</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.525291617856004</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.4380552209324</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N12">
-        <v>62.4380552209324</v>
+        <v>188.369503</v>
       </c>
       <c r="O12">
-        <v>0.5544412004591804</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P12">
-        <v>0.5544412004591804</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q12">
-        <v>24762.97639957813</v>
+        <v>11246.87571470065</v>
       </c>
       <c r="R12">
-        <v>24762.97639957813</v>
+        <v>101221.8814323059</v>
       </c>
       <c r="S12">
-        <v>0.2912433151952279</v>
+        <v>0.08081099085937446</v>
       </c>
       <c r="T12">
-        <v>0.2912433151952279</v>
+        <v>0.08315320165107019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>396.600699876961</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>396.600699876961</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.525291617856004</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.525291617856004</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.0023178766533</v>
+        <v>3.084311</v>
       </c>
       <c r="N13">
-        <v>3.0023178766533</v>
+        <v>6.168622</v>
       </c>
       <c r="O13">
-        <v>0.02666016296954829</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P13">
-        <v>0.02666016296954829</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q13">
-        <v>1190.72137113381</v>
+        <v>552.4598504007956</v>
       </c>
       <c r="R13">
-        <v>1190.72137113381</v>
+        <v>3314.759102404774</v>
       </c>
       <c r="S13">
-        <v>0.01400436013857875</v>
+        <v>0.003969531543996293</v>
       </c>
       <c r="T13">
-        <v>0.01400436013857875</v>
+        <v>0.002723055807368287</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>53.2757126866682</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H14">
-        <v>53.2757126866682</v>
+        <v>1879.118438</v>
       </c>
       <c r="I14">
-        <v>0.07056287424175893</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J14">
-        <v>0.07056287424175893</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N14">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O14">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P14">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q14">
-        <v>2513.229144032985</v>
+        <v>230.5567664229095</v>
       </c>
       <c r="R14">
-        <v>2513.229144032985</v>
+        <v>2075.010897806186</v>
       </c>
       <c r="S14">
-        <v>0.0295586918124229</v>
+        <v>0.001656595237343616</v>
       </c>
       <c r="T14">
-        <v>0.0295586918124229</v>
+        <v>0.00170460968687722</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>53.2757126866682</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H15">
-        <v>53.2757126866682</v>
+        <v>1879.118438</v>
       </c>
       <c r="I15">
-        <v>0.07056287424175893</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J15">
-        <v>0.07056287424175893</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N15">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O15">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P15">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q15">
-        <v>3326.431890664718</v>
+        <v>42227.26955008873</v>
       </c>
       <c r="R15">
-        <v>3326.431890664718</v>
+        <v>380045.4259507986</v>
       </c>
       <c r="S15">
-        <v>0.039122964702451</v>
+        <v>0.3034111499221265</v>
       </c>
       <c r="T15">
-        <v>0.039122964702451</v>
+        <v>0.3122051624953058</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H16">
+        <v>1879.118438</v>
+      </c>
+      <c r="I16">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J16">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>39329.84513824403</v>
+      </c>
+      <c r="R16">
+        <v>353968.6062441963</v>
+      </c>
+      <c r="S16">
+        <v>0.2825925916308435</v>
+      </c>
+      <c r="T16">
+        <v>0.2907832029664084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>626.3728126666666</v>
+      </c>
+      <c r="H17">
+        <v>1879.118438</v>
+      </c>
+      <c r="I17">
+        <v>0.6015416194555684</v>
+      </c>
+      <c r="J17">
+        <v>0.6142153852759307</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>1931.928556208739</v>
+      </c>
+      <c r="R17">
+        <v>11591.57133725244</v>
+      </c>
+      <c r="S17">
+        <v>0.01388128266525476</v>
+      </c>
+      <c r="T17">
+        <v>0.009522410127339202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>53.2757126866682</v>
-      </c>
-      <c r="H16">
-        <v>53.2757126866682</v>
-      </c>
-      <c r="I16">
-        <v>0.07056287424175893</v>
-      </c>
-      <c r="J16">
-        <v>0.07056287424175893</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N16">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O16">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P16">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q16">
-        <v>159.9506245906289</v>
-      </c>
-      <c r="R16">
-        <v>159.9506245906289</v>
-      </c>
-      <c r="S16">
-        <v>0.001881217726885034</v>
-      </c>
-      <c r="T16">
-        <v>0.001881217726885034</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H18">
+        <v>128.915001</v>
+      </c>
+      <c r="I18">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J18">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>23.7256671848745</v>
+      </c>
+      <c r="R18">
+        <v>142.354003109247</v>
+      </c>
+      <c r="S18">
+        <v>0.0001704735361753293</v>
+      </c>
+      <c r="T18">
+        <v>0.0001169430063824357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H19">
+        <v>128.915001</v>
+      </c>
+      <c r="I19">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J19">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>4345.438041205276</v>
+      </c>
+      <c r="R19">
+        <v>26072.62824723166</v>
+      </c>
+      <c r="S19">
+        <v>0.03122281802837226</v>
+      </c>
+      <c r="T19">
+        <v>0.02141851626879067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H20">
+        <v>128.915001</v>
+      </c>
+      <c r="I20">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J20">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>4047.275777935751</v>
+      </c>
+      <c r="R20">
+        <v>24283.6546676145</v>
+      </c>
+      <c r="S20">
+        <v>0.02908046413891031</v>
+      </c>
+      <c r="T20">
+        <v>0.01994888461692469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>64.45750049999999</v>
+      </c>
+      <c r="H21">
+        <v>128.915001</v>
+      </c>
+      <c r="I21">
+        <v>0.06190222253062919</v>
+      </c>
+      <c r="J21">
+        <v>0.04213761911214986</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>198.8069778246555</v>
+      </c>
+      <c r="R21">
+        <v>795.227911298622</v>
+      </c>
+      <c r="S21">
+        <v>0.001428466827171274</v>
+      </c>
+      <c r="T21">
+        <v>0.0006532752200520654</v>
       </c>
     </row>
   </sheetData>
